--- a/Employee_Reports35/Jerry Arnejo Carandang Q0095.xlsx
+++ b/Employee_Reports35/Jerry Arnejo Carandang Q0095.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFACD"/>
-        <bgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,15 +67,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -452,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +454,13 @@
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="46" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -543,143 +534,94 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>LOTO (SOPs)</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>ELECTRICAL SAFETY</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>LSME-OHS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>10-Dec-2024</t>
+          <t>06-Oct-2025</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>10-Dec-2025</t>
+          <t>06-Oct-2027</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>37</v>
+        <v>701</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>EXPIRING SOON</t>
+          <t>VALID</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>IS0 55001 (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr"/>
-      <c r="D4" s="4" t="inlineStr"/>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>06-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>06-Oct-2027</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>702</v>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Material request Procedure (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>17-Nov-2024</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>17-Nov-2026</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>378</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Material request Procedure (Other Trainings)</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>17-Nov-2024</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>17-Nov-2026</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>379</v>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr"/>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>YOU ARE LISTED AS ; SENIOR TECHNICIAN</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Jerry Arnejo Carandang Q0095.xlsx
+++ b/Employee_Reports35/Jerry Arnejo Carandang Q0095.xlsx
@@ -551,11 +551,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -588,11 +588,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
